--- a/docs/source/_static/testcase/集成测试/1300-节能控制.xlsx
+++ b/docs/source/_static/testcase/集成测试/1300-节能控制.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFA99E1-D7A1-44A6-BA3D-33E0A06BB2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4406B53C-C4E2-4F4A-B32C-9731787B38A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>状态同步</t>
   </si>
@@ -43,7 +43,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>空调</t>
     </r>
@@ -74,7 +74,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>环境温度传感器</t>
     </r>
@@ -105,7 +105,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>回风温度传感器</t>
     </r>
@@ -136,7 +136,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>人体传感器</t>
     </r>
@@ -167,7 +167,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>控制器</t>
     </r>
@@ -198,7 +198,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>空调采集器</t>
     </r>
@@ -217,7 +217,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>后续称 采集器</t>
     </r>
@@ -248,7 +248,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">辅助热源 </t>
     </r>
@@ -267,7 +267,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>（参考实际需求）</t>
     </r>
@@ -289,7 +289,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>环境温度传感器连接值控制器的单总线端子
 回风温度传感器连接值采集器的单总线端子，放置在空调的回风口</t>
@@ -309,7 +309,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>进风口处，安装牢固。
 人体传感器连接至控制器的</t>
@@ -329,7 +329,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>总线端子，放置在空旷环境。</t>
     </r>
@@ -350,7 +350,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>控制器、采集器、环境温度传感器、回风温度传感器、人体传感器均已添加至平台</t>
     </r>
@@ -424,7 +424,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>运行状态</t>
     </r>
@@ -433,7 +433,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">, 按如下设置:
           + 空调通电状态: </t>
@@ -444,7 +444,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>通电</t>
     </r>
@@ -453,7 +453,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
           + 压缩机运行状态: </t>
@@ -464,7 +464,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>待机</t>
     </r>
@@ -473,7 +473,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
           + 节能状态: </t>
@@ -484,7 +484,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>开启</t>
     </r>
@@ -493,7 +493,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
       单击 ”保存并下发“ 按钮</t>
@@ -511,7 +511,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">制冷模式
   - </t>
@@ -521,7 +521,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>制冷目标温度，设置为16℃(空调机制冷能力的最低温度)
   - 设置完毕，手动关闭空调机</t>
@@ -530,58 +530,6 @@
   </si>
   <si>
     <r>
-      <t>控制器、采集器、空调等所有设备通电，并处于在线状态
-平台可查所有设备已在线
-* 回风温度传感器位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:
-   - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安装在距离空调出风口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1-1.5m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>处，空调出风直吹回风
-     温度传感器
-* 人体传感器, 断开人体传感器的连接
-* 安装辅助热源出风口对准空调回风温度传感器
-  - 安装效果: 开启热源后，能够将回风温度加热到30℃以上
-  - 辅助热源关机</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1 登录平台(运维账号)</t>
     </r>
     <r>
@@ -589,7 +537,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>，查看空调回风温度及压缩机
  工作状态视图
@@ -602,7 +550,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>传感器数据-&gt;</t>
     </r>
@@ -611,7 +559,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>目标空调机-&gt;回风温度
     *</t>
@@ -631,7 +579,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>一个网页进入 设备管理</t>
     </r>
@@ -650,7 +598,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>站点设备信息</t>
     </r>
@@ -670,7 +618,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>目标站点</t>
     </r>
@@ -689,7 +637,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>数据报表</t>
     </r>
@@ -709,7 +657,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>设备数据</t>
     </r>
@@ -728,7 +676,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>目标控制器</t>
     </r>
@@ -748,7 +696,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>运行时长</t>
     </r>
@@ -795,7 +743,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>彩色线条视图</t>
     </r>
@@ -804,7 +752,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>中,</t>
     </r>
@@ -814,7 +762,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>蓝色</t>
     </r>
@@ -823,7 +771,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>线条处于“节能”位置处
 * 查看步骤1开启的空调</t>
@@ -834,7 +782,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>回风温度</t>
     </r>
@@ -843,7 +791,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>曲线图，最新节点呈上升趋势
 * 当温度上升到预设的28℃，空调机开机并吹出冷风。
@@ -855,7 +803,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>回风温度</t>
     </r>
@@ -864,11 +812,693 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK SC"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>曲线图,最新节点呈下降趋势
 * 当温度下降到19摄氏度，空调机关闭。</t>
     </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>同用例1300</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">控制器、采集器、空调等所有设备通电，并处于在线状态
+平台可查所有设备已在线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回风温度传感器位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:
+   - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装在距离空调出风口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-1.5m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">处，空调出风直吹回风
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">温度传感器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人体传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>断开人体传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的连接
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">安装辅助热源出风口对准空调回风温度传感器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启热源后，能够将回风温度加热到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">以上
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辅助热源关机</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">人体感应相关设置
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录平台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运维账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 设备管理-&gt;在运行控制器维护-&gt;
+  目标控制器-&gt;节能配置-&gt;站点工作参数设定, 修改配置如下:
+  - 人体感应开关: 开启
+  - 有人自动退出节能开关: 开启  
+  - 单击“保存”按钮</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接通人体感应模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">测试期间为避免感应模块受到干扰，模块安装在相对安静且无人的
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环境</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 环境准备好后，人员退出人体感应范围。 在平台观察空调
+   运行状况
+   - 登录平台，进入页面 设备管理-&gt;设备站点信息-&gt;
+      目标站点-&gt;数据报表-&gt;传感器数据-&gt;目标控制器-&gt;
+       回风温度</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察空调回风温度曲线，在温度上限、下限之间规律波动。温度
+上下限与预期相同。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 步骤1后，空调的回风温度曲线变化符合预期且回风温度曲线完成一个周期后执行:
+   - 人员进入人体感应量程范围，持续走动2分钟。
+   - 完成动作，人员退出人体感应范围。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3 查看平台中人体感应数据的变化和空调机运行状态的线条位
+   置变化:
+   - 登录平台，进入页面 设备管理-&gt;站点设备信息-&gt;
+      目标站点-&gt;数据报表-&gt;传感器数据-&gt;目标控制器-&gt;
+      目标</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">人体数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   - 登录平台，进入页面 设备管理-&gt;站点设备信息-&gt;
+      目标站点-&gt;数据报表-&gt;设备数据-&gt;目标空调-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行时长</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 人员进入人体感应范围后，保持持续走动。
+* 同时观察人体感应模块的led灯。
+* 人体活动期间，人体模块的红色灯保持常亮。
+* 人体进入后，空调机自动开机。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 人员退出后
+   - 人体传感器最新节点显示数据如下:
+      是否有人：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+      有人时长:  接近2分钟(±1分钟)
+   - 空调机持续</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+   - 运行时长页面：
+      + 人体线条(淡蓝色)处于“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”位置
+      + 节能线条(蓝色) 处于 “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”位置
+      + 开关机线条(黄色)处于"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"位置
+* 人员退出后10分钟
+   - 人体感应最近节点显示数据如下:
+      是否有人:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+   - 空调机自动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关机</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>节能开启时，
+ - 有人进入节能关闭
+ - 无人状态节能开启
+测试时机: 
+ - 系统开机后执行一次
+ - 系统自动运行6小时
+ - 系统自动运行12小时</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同用例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1300</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开人体感应模块的通信
+开启辅助热源对空调回风温度传感器加热
+节能模式正常工作1个周期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>节能开启时，外来因素影响
+空调机开关机
+  - 回风温度达到工作上限
+     (28℃)后，人为操作
+    关机。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 节能系统运行至少一个周期(自动开关机完成一次)后执行
+  - 待空调机回风温度上升至28℃，自动开机。
+    立即执行手动关机
+  - 关闭辅助热源</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 空调机回风温度上升达到28摄氏度后，空调机自动开机。
+* 手动关机后，空调机关机。
+* 回风温度下降到19℃后，空调机(开关信号方式控制)会响应开机
+ （应当执行关机，但空调机的控制方式为简单脉冲信号，
+  无法区分开关机）
+* 回风温度持续低于19℃，1分钟后空调再次收到信号，执行关机。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +1506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,14 +1532,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Noto Sans CJK SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Noto Sans CJK SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -922,7 +1552,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Noto Sans CJK SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -937,7 +1567,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Noto Sans CJK SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -966,6 +1596,54 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Serif CJK SC"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1013,7 +1691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1021,17 +1699,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1077,23 +1795,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1129,32 +1835,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,18 +2375,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5234375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.62890625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.3125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="54.5234375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.62890625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.47265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5234375" style="5" customWidth="1"/>
     <col min="5" max="5" width="48.3125" customWidth="1"/>
     <col min="6" max="6" width="53.578125" customWidth="1"/>
     <col min="7" max="7" width="27.41796875" customWidth="1"/>
@@ -1649,20 +2394,20 @@
     <col min="11" max="11" width="12.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:8" ht="19.8">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -1674,7 +2419,7 @@
       <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
@@ -1684,7 +2429,7 @@
       <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +2439,7 @@
       <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="38" t="s">
         <v>5</v>
       </c>
@@ -1704,7 +2449,7 @@
       <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="38" t="s">
         <v>6</v>
       </c>
@@ -1714,7 +2459,7 @@
       <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A7" s="43"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="38" t="s">
         <v>7</v>
       </c>
@@ -1724,7 +2469,7 @@
       <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="38" t="s">
         <v>8</v>
       </c>
@@ -1734,7 +2479,7 @@
       <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
@@ -1744,7 +2489,7 @@
       <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A10" s="43"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="38" t="s">
         <v>10</v>
       </c>
@@ -1754,268 +2499,346 @@
       <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="15.7" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="15.7" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="14.1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="18.3">
-      <c r="A16" s="16" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="17.7">
+      <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="129.6">
-      <c r="A17" s="40">
+    <row r="17" spans="1:11" ht="132">
+      <c r="A17" s="32">
         <v>1300</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="31">
         <v>0</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" ht="77.25" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="1:11" ht="77.25" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" ht="165" customHeight="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" ht="88.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="K21" s="28"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="17.7">
+      <c r="A22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A23" s="40">
+        <v>1301</v>
+      </c>
+      <c r="B23" s="31">
+        <v>1300</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="10"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:11" ht="63">
+      <c r="A24" s="40"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="1:11" ht="64.8" customHeight="1">
+      <c r="A25" s="40"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="1:11" ht="167.4" customHeight="1">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="17.7">
+      <c r="A27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="45" customFormat="1" ht="77.400000000000006">
+      <c r="A28" s="47">
+        <v>1302</v>
+      </c>
+      <c r="B28" s="53">
+        <v>1300</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="1:11" ht="165" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="1:11" ht="90.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="1:11" s="2" customFormat="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="K21" s="33"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="18.3">
-      <c r="A22" s="16" t="s">
+      <c r="E28" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="46" customFormat="1" ht="134.4" customHeight="1">
+      <c r="A29" s="47"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="17.7">
+      <c r="A30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H30" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="69.75" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="K23" s="34"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="18.3">
-      <c r="A24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="3" customFormat="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="18.3">
-      <c r="A26" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.1">
-      <c r="B27" s="6"/>
-      <c r="C27" s="26"/>
-    </row>
-    <row r="28" spans="1:11" ht="14.1">
-      <c r="B28" s="6"/>
-      <c r="C28" s="26"/>
+    <row r="31" spans="1:11" ht="14.1">
+      <c r="B31" s="5"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" ht="14.1">
+      <c r="B32" s="5"/>
+      <c r="C32" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="25">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B6:F6"/>
@@ -2026,6 +2849,9 @@
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/source/_static/testcase/集成测试/1300-节能控制.xlsx
+++ b/docs/source/_static/testcase/集成测试/1300-节能控制.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4406B53C-C4E2-4F4A-B32C-9731787B38A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8377D9-8DE2-45AC-9E10-DF8D759E45E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>状态同步</t>
   </si>
@@ -1478,14 +1478,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>节能开启时，外来因素影响
-空调机开关机
-  - 回风温度达到工作上限
-     (28℃)后，人为操作
-    关机。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>1 节能系统运行至少一个周期(自动开关机完成一次)后执行
   - 待空调机回风温度上升至28℃，自动开机。
     立即执行手动关机
@@ -1493,12 +1485,85 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>节能开启时，外来因素影响
+空调机开关机
+  - 回风温度达到工作上限
+     (28℃)后，人为操作
+    关机。
+  - 回风温度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>升温</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>节能开启时，外来因素影响
+空调机开关机
+  - 回风温度达到工作上限
+     (28℃)后，人为操作
+    关机。
+  - 回风温度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降温</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 节能系统运行至少一个周期(自动开关机完成一次)后执行
+  - 待空调机回风温度上升至28℃，自动开机。
+    立即执行手动关机
+  - 辅助热源保持开启-加热</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>* 空调机回风温度上升达到28摄氏度后，空调机自动开机。
 * 手动关机后，空调机关机。
 * 回风温度下降到19℃后，空调机(开关信号方式控制)会响应开机
  （应当执行关机，但空调机的控制方式为简单脉冲信号，
   无法区分开关机）
+* 运行时长页面的线状态更新，空调机开/关机处于“开机”位置
 * 回风温度持续低于19℃，1分钟后空调再次收到信号，执行关机。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>* 空调机回风温度上升达到28摄氏度后，空调机自动开机。
+* 手动关机后，空调机关机。
+* 回风温度上升到28℃后，</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空调机(开关信号方式控制)会响应开机
+ （应当执行关机，但空调机的控制方式为简单脉冲信号，
+  无法区分开关机）</t>
+    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1506,7 +1571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1646,8 +1711,16 @@
       <name val="Noto Serif CJK SC"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1688,6 +1761,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59987182226020086"/>
         <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -1744,7 +1823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1803,9 +1882,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1888,7 +1964,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1899,6 +1974,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2375,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5234375" defaultRowHeight="14.4"/>
@@ -2395,127 +2508,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A11" s="36"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" ht="15.7" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -2523,11 +2636,11 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="15.7" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2535,9 +2648,9 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="14.1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2549,10 +2662,10 @@
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="17.7">
       <c r="A16" s="15" t="s">
@@ -2581,29 +2694,29 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="132">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>1300</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="30">
         <v>0</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="77.25" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="9" t="s">
         <v>26</v>
       </c>
@@ -2613,41 +2726,41 @@
       <c r="F18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:11" ht="165" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:11" ht="88.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1">
-      <c r="A21" s="32"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="K21" s="28"/>
+      <c r="F21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="17.7">
       <c r="A22" s="15" t="s">
@@ -2676,27 +2789,27 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A23" s="40">
+      <c r="A23" s="39">
         <v>1301</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="30">
         <v>1300</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="10"/>
-      <c r="K23" s="29"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" ht="63">
-      <c r="A24" s="40"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="43" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="42" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="20" t="s">
@@ -2705,13 +2818,13 @@
       <c r="F24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="29"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="1:11" ht="64.8" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="44" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="20" t="s">
@@ -2720,20 +2833,20 @@
       <c r="F25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="29"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="1:11" ht="167.4" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="44"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="29"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="17.7">
       <c r="A27" s="15" t="s">
@@ -2761,35 +2874,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="45" customFormat="1" ht="77.400000000000006">
-      <c r="A28" s="47">
+    <row r="28" spans="1:11" s="44" customFormat="1" ht="77.400000000000006" customHeight="1">
+      <c r="A28" s="46">
         <v>1302</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="51">
         <v>1300</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="46" customFormat="1" ht="134.4" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="52" t="s">
+      <c r="F28" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="45" customFormat="1" ht="38.700000000000003">
+      <c r="A29" s="46"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="65"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" ht="17.7">
       <c r="A30" s="15" t="s">
@@ -2817,19 +2930,72 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.1">
-      <c r="B31" s="5"/>
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="1:11" ht="14.1">
-      <c r="B32" s="5"/>
-      <c r="C32" s="21"/>
+    <row r="31" spans="1:11" s="60" customFormat="1" ht="51.6">
+      <c r="A31" s="54">
+        <v>1303</v>
+      </c>
+      <c r="B31" s="55">
+        <v>1300</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="63" customFormat="1" ht="44.1" customHeight="1">
+      <c r="A32" s="54"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="62"/>
+      <c r="F32" s="67"/>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="17.7">
+      <c r="A33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="30">
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C23:C26"/>
